--- a/Code/Results/Cases/Case_2_209/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_209/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9003595287013297</v>
+        <v>0.3085878193809322</v>
       </c>
       <c r="C2">
-        <v>0.1230926261894183</v>
+        <v>0.05600425874996517</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.012599669322839</v>
+        <v>0.7412275368263153</v>
       </c>
       <c r="F2">
-        <v>1.826684859846452</v>
+        <v>2.1401641376887</v>
       </c>
       <c r="G2">
-        <v>0.1958416580696891</v>
+        <v>0.3757734516185138</v>
       </c>
       <c r="H2">
-        <v>0.2052536091315176</v>
+        <v>0.5512079301942805</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01519123849918813</v>
+        <v>0.03500250578657216</v>
       </c>
       <c r="K2">
-        <v>0.9265535083114855</v>
+        <v>0.2883637197925282</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.665569208687252</v>
+        <v>1.195404981206032</v>
       </c>
       <c r="O2">
-        <v>0.7940646715830439</v>
+        <v>1.795432379671979</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7836236992497163</v>
+        <v>0.2729701417155752</v>
       </c>
       <c r="C3">
-        <v>0.1119487192148512</v>
+        <v>0.05234576605603536</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.8877361943517457</v>
+        <v>0.7121726695951338</v>
       </c>
       <c r="F3">
-        <v>1.649814218959506</v>
+        <v>2.110706947619377</v>
       </c>
       <c r="G3">
-        <v>0.192839170819731</v>
+        <v>0.3789724841568187</v>
       </c>
       <c r="H3">
-        <v>0.2091794307462607</v>
+        <v>0.5559883586556182</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01526010101970066</v>
+        <v>0.03533973316615402</v>
       </c>
       <c r="K3">
-        <v>0.8097240912471193</v>
+        <v>0.2518252571454127</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6878792535242191</v>
+        <v>1.205710661661431</v>
       </c>
       <c r="O3">
-        <v>0.7956021441306689</v>
+        <v>1.812005848290596</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7119742063729575</v>
+        <v>0.2510848548860736</v>
       </c>
       <c r="C4">
-        <v>0.105097335738364</v>
+        <v>0.05008712320821473</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.8121235853040076</v>
+        <v>0.6947055943195437</v>
       </c>
       <c r="F4">
-        <v>1.544135297588667</v>
+        <v>2.093884989288568</v>
       </c>
       <c r="G4">
-        <v>0.1916073663297908</v>
+        <v>0.3812152619849272</v>
       </c>
       <c r="H4">
-        <v>0.2119817254569156</v>
+        <v>0.559159155452349</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01534445376943872</v>
+        <v>0.03556788842769798</v>
       </c>
       <c r="K4">
-        <v>0.7379429352182996</v>
+        <v>0.2293227894513592</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7024090129435621</v>
+        <v>1.212459214350723</v>
       </c>
       <c r="O4">
-        <v>0.798655979150297</v>
+        <v>1.823258438441982</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6827752748878879</v>
+        <v>0.2421629972761536</v>
       </c>
       <c r="C5">
-        <v>0.1023025395003998</v>
+        <v>0.04916367737625649</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.7815471500463929</v>
+        <v>0.6876812727684438</v>
       </c>
       <c r="F5">
-        <v>1.501746698264995</v>
+        <v>2.087347678862642</v>
       </c>
       <c r="G5">
-        <v>0.19125132145534</v>
+        <v>0.3821991548976769</v>
       </c>
       <c r="H5">
-        <v>0.213218829706264</v>
+        <v>0.560510543242188</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01538891056731195</v>
+        <v>0.0356661634232367</v>
       </c>
       <c r="K5">
-        <v>0.708672288453343</v>
+        <v>0.2201363969329577</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7085338442918392</v>
+        <v>1.21531520039948</v>
       </c>
       <c r="O5">
-        <v>0.8004071292097308</v>
+        <v>1.82811445182324</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.677926520977195</v>
+        <v>0.2406813395037943</v>
       </c>
       <c r="C6">
-        <v>0.101838281448309</v>
+        <v>0.04901015880128057</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.7764834230822402</v>
+        <v>0.6865205439177373</v>
       </c>
       <c r="F6">
-        <v>1.494747327676293</v>
+        <v>2.086281347893021</v>
       </c>
       <c r="G6">
-        <v>0.1912007900268193</v>
+        <v>0.382366750913917</v>
       </c>
       <c r="H6">
-        <v>0.2134299006853269</v>
+        <v>0.5607385200570008</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01539688748238355</v>
+        <v>0.03568280186612327</v>
       </c>
       <c r="K6">
-        <v>0.7038105527041125</v>
+        <v>0.2186100264622581</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.709563031630978</v>
+        <v>1.215795832866633</v>
       </c>
       <c r="O6">
-        <v>0.8007278330160972</v>
+        <v>1.828937120875764</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7115804342737988</v>
+        <v>0.2509645447092055</v>
       </c>
       <c r="C7">
-        <v>0.1050596561707664</v>
+        <v>0.05007468147744021</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.8117103006471069</v>
+        <v>0.6946104827594439</v>
       </c>
       <c r="F7">
-        <v>1.543560965439653</v>
+        <v>2.093795538565203</v>
       </c>
       <c r="G7">
-        <v>0.1916019839077094</v>
+        <v>0.3812282480502986</v>
       </c>
       <c r="H7">
-        <v>0.2119980285840697</v>
+        <v>0.5591771407629906</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0153450131445112</v>
+        <v>0.03556919234596734</v>
       </c>
       <c r="K7">
-        <v>0.7375482682894017</v>
+        <v>0.229198964415275</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7024907959260815</v>
+        <v>1.212497302305721</v>
       </c>
       <c r="O7">
-        <v>0.7986775749056818</v>
+        <v>1.823322833369119</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8600985108612917</v>
+        <v>0.2963104727025723</v>
       </c>
       <c r="C8">
-        <v>0.1192517261672208</v>
+        <v>0.05474540451390908</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.9693100710162099</v>
+        <v>0.731132003633121</v>
       </c>
       <c r="F8">
-        <v>1.765057760620138</v>
+        <v>2.129744583998303</v>
       </c>
       <c r="G8">
-        <v>0.1946745626971946</v>
+        <v>0.3768186007994032</v>
       </c>
       <c r="H8">
-        <v>0.2065238248238614</v>
+        <v>0.5528073365306341</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01520594369488748</v>
+        <v>0.03511440026133172</v>
       </c>
       <c r="K8">
-        <v>0.8862759831035589</v>
+        <v>0.2757796410004687</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6730859733438095</v>
+        <v>1.198871083953051</v>
       </c>
       <c r="O8">
-        <v>0.794142195226101</v>
+        <v>1.800923392460206</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.151949560936259</v>
+        <v>0.385086857421868</v>
       </c>
       <c r="C9">
-        <v>0.1470393240372374</v>
+        <v>0.06380450004247962</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.288132895250712</v>
+        <v>0.8057158946062373</v>
       </c>
       <c r="F9">
-        <v>2.225395531994266</v>
+        <v>2.210296528264564</v>
       </c>
       <c r="G9">
-        <v>0.2059293619936966</v>
+        <v>0.3703863872033395</v>
       </c>
       <c r="H9">
-        <v>0.1990583463766811</v>
+        <v>0.5421846171184583</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01529073723833996</v>
+        <v>0.03439017504906339</v>
       </c>
       <c r="K9">
-        <v>1.177922251890124</v>
+        <v>0.3665662045767988</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6222642489015229</v>
+        <v>1.17548566752194</v>
       </c>
       <c r="O9">
-        <v>0.8031219434487298</v>
+        <v>1.765547667567802</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.367350188816744</v>
+        <v>0.4501997104115105</v>
       </c>
       <c r="C10">
-        <v>0.1674736931268797</v>
+        <v>0.0703964307267313</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.53046400206695</v>
+        <v>0.8623378670615693</v>
       </c>
       <c r="F10">
-        <v>2.583676326722156</v>
+        <v>2.275645480384952</v>
       </c>
       <c r="G10">
-        <v>0.217939105205609</v>
+        <v>0.3670180179778129</v>
       </c>
       <c r="H10">
-        <v>0.1958023387702283</v>
+        <v>0.5355179679821802</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01560599368314897</v>
+        <v>0.03396060355742136</v>
       </c>
       <c r="K10">
-        <v>1.392759140235967</v>
+        <v>0.4329052416027253</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5894527012852251</v>
+        <v>1.160332976982389</v>
       </c>
       <c r="O10">
-        <v>0.8222823505359571</v>
+        <v>1.744781794817641</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.465700586520285</v>
+        <v>0.4797928833435208</v>
       </c>
       <c r="C11">
-        <v>0.176785168548335</v>
+        <v>0.07338088227047024</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.642987904199202</v>
+        <v>0.8884971670285751</v>
       </c>
       <c r="F11">
-        <v>2.752054315807328</v>
+        <v>2.306722228280279</v>
       </c>
       <c r="G11">
-        <v>0.2243461820513559</v>
+        <v>0.365781927139146</v>
       </c>
       <c r="H11">
-        <v>0.1948610567669107</v>
+        <v>0.5327319747677848</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01581270818461888</v>
+        <v>0.03378751375275257</v>
       </c>
       <c r="K11">
-        <v>1.490755051575889</v>
+        <v>0.4630017952918024</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5755929745400437</v>
+        <v>1.153879127946176</v>
       </c>
       <c r="O11">
-        <v>0.8341225755662407</v>
+        <v>1.736472154081511</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.503008402823355</v>
+        <v>0.490994668479118</v>
       </c>
       <c r="C12">
-        <v>0.1803144507063195</v>
+        <v>0.07450890826351042</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.685974407168828</v>
+        <v>0.8984609711751119</v>
       </c>
       <c r="F12">
-        <v>2.816683859855772</v>
+        <v>2.318684697481814</v>
       </c>
       <c r="G12">
-        <v>0.2269198589453012</v>
+        <v>0.3653565649342525</v>
       </c>
       <c r="H12">
-        <v>0.1945872888426337</v>
+        <v>0.5317124522613881</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.01590084420433158</v>
+        <v>0.03372518544068726</v>
       </c>
       <c r="K12">
-        <v>1.527913846688818</v>
+        <v>0.4743863719922672</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5705055677845081</v>
+        <v>1.151498316443359</v>
       </c>
       <c r="O12">
-        <v>0.8390909124533437</v>
+        <v>1.733489218644209</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.494970413921266</v>
+        <v>0.4885823740456772</v>
       </c>
       <c r="C13">
-        <v>0.1795541967213552</v>
+        <v>0.07426606315780759</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.676698963265338</v>
+        <v>0.8963125136550474</v>
       </c>
       <c r="F13">
-        <v>2.8027245422129</v>
+        <v>2.316099714738527</v>
       </c>
       <c r="G13">
-        <v>0.2263588175827493</v>
+        <v>0.3654462723766159</v>
       </c>
       <c r="H13">
-        <v>0.1946424886123381</v>
+        <v>0.5319304470521971</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01588141148122091</v>
+        <v>0.03373846577014206</v>
       </c>
       <c r="K13">
-        <v>1.519908620727733</v>
+        <v>0.4719350583094695</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.57159394611773</v>
+        <v>1.152008259973854</v>
       </c>
       <c r="O13">
-        <v>0.8379987434475424</v>
+        <v>1.734124360311739</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.468768552852879</v>
+        <v>0.48071455486334</v>
       </c>
       <c r="C14">
-        <v>0.177075454164239</v>
+        <v>0.07347372856764878</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.646516603925022</v>
+        <v>0.8893157354075925</v>
       </c>
       <c r="F14">
-        <v>2.757353461901289</v>
+        <v>2.30770249005252</v>
       </c>
       <c r="G14">
-        <v>0.2245548945531013</v>
+        <v>0.3657460754716908</v>
       </c>
       <c r="H14">
-        <v>0.1948368466507375</v>
+        <v>0.5326473871247828</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01581975709810557</v>
+        <v>0.03378232145106885</v>
       </c>
       <c r="K14">
-        <v>1.493811058112158</v>
+        <v>0.4639386620792152</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5751711590562891</v>
+        <v>1.153681992292142</v>
       </c>
       <c r="O14">
-        <v>0.8345213974429271</v>
+        <v>1.736223462965654</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.452727960377416</v>
+        <v>0.4758946828943635</v>
       </c>
       <c r="C15">
-        <v>0.1755576033751396</v>
+        <v>0.07298812240361485</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.628079504217936</v>
+        <v>0.8850375423392762</v>
       </c>
       <c r="F15">
-        <v>2.729678354657864</v>
+        <v>2.302584272359212</v>
       </c>
       <c r="G15">
-        <v>0.2234695053061557</v>
+        <v>0.3659352804695786</v>
       </c>
       <c r="H15">
-        <v>0.1949668189167753</v>
+        <v>0.5330911531444684</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0157832991452338</v>
+        <v>0.03380960347872453</v>
       </c>
       <c r="K15">
-        <v>1.477832405530449</v>
+        <v>0.4590390134669917</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773835028449454</v>
+        <v>1.154715420948243</v>
       </c>
       <c r="O15">
-        <v>0.8324556401249765</v>
+        <v>1.737530556307817</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.360931110732196</v>
+        <v>0.4482651303242164</v>
       </c>
       <c r="C16">
-        <v>0.1668655636369891</v>
+        <v>0.07020109689668175</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.523160256846396</v>
+        <v>0.8606363852588004</v>
       </c>
       <c r="F16">
-        <v>2.572788724120528</v>
+        <v>2.273641722258247</v>
       </c>
       <c r="G16">
-        <v>0.2175403640886628</v>
+        <v>0.3671047704250157</v>
       </c>
       <c r="H16">
-        <v>0.1958751405912196</v>
+        <v>0.5357050031947352</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01559382147422994</v>
+        <v>0.03397236518963354</v>
       </c>
       <c r="K16">
-        <v>1.386361197285822</v>
+        <v>0.4309366691553578</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5903805667428728</v>
+        <v>1.160763585824526</v>
       </c>
       <c r="O16">
-        <v>0.8215744035947949</v>
+        <v>1.745347748647745</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.304718337931348</v>
+        <v>0.4313079362780456</v>
       </c>
       <c r="C17">
-        <v>0.1615379726130328</v>
+        <v>0.06848764590574774</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.45941361804293</v>
+        <v>0.8457700049601584</v>
       </c>
       <c r="F17">
-        <v>2.477987141544361</v>
+        <v>2.25623222450767</v>
       </c>
       <c r="G17">
-        <v>0.2141528530097716</v>
+        <v>0.367898167439769</v>
       </c>
       <c r="H17">
-        <v>0.1965741223270356</v>
+        <v>0.5373716992622946</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01549431609352325</v>
+        <v>0.03407793689011562</v>
       </c>
       <c r="K17">
-        <v>1.330322598012827</v>
+        <v>0.4136754932501958</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5986322532545003</v>
+        <v>1.164586400516527</v>
       </c>
       <c r="O17">
-        <v>0.8157237290247537</v>
+        <v>1.750434709215583</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.272419661969536</v>
+        <v>0.4215521036814778</v>
       </c>
       <c r="C18">
-        <v>0.1584751052855182</v>
+        <v>0.0675007771430387</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.422960346488608</v>
+        <v>0.8372570592048874</v>
       </c>
       <c r="F18">
-        <v>2.423961503825637</v>
+        <v>2.246345711046075</v>
       </c>
       <c r="G18">
-        <v>0.2122925299379759</v>
+        <v>0.3683823804019397</v>
       </c>
       <c r="H18">
-        <v>0.1970266535791225</v>
+        <v>0.5383535593403082</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.01544299319161624</v>
+        <v>0.03414075981222808</v>
       </c>
       <c r="K18">
-        <v>1.298114915738381</v>
+        <v>0.4037396965356379</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6034782969262835</v>
+        <v>1.166826522482609</v>
       </c>
       <c r="O18">
-        <v>0.8126503624214791</v>
+        <v>1.753467585001957</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.26148926454519</v>
+        <v>0.4182485355683809</v>
       </c>
       <c r="C19">
-        <v>0.1574382876126634</v>
+        <v>0.06716641288289793</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.410652951847581</v>
+        <v>0.8343812122169254</v>
       </c>
       <c r="F19">
-        <v>2.405752825032593</v>
+        <v>2.243020103359299</v>
       </c>
       <c r="G19">
-        <v>0.2116774404308188</v>
+        <v>0.3685511097941756</v>
       </c>
       <c r="H19">
-        <v>0.1971883976344984</v>
+        <v>0.5386899885283967</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01542660908315874</v>
+        <v>0.03416239119320252</v>
       </c>
       <c r="K19">
-        <v>1.28721377029035</v>
+        <v>0.4003743160814679</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6051360159817563</v>
+        <v>1.167592090549086</v>
       </c>
       <c r="O19">
-        <v>0.8116588471886246</v>
+        <v>1.754512832265917</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.310698737729638</v>
+        <v>0.4331133221273546</v>
       </c>
       <c r="C20">
-        <v>0.1621049499453449</v>
+        <v>0.06867018459104202</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.466177274769876</v>
+        <v>0.8473486434521789</v>
       </c>
       <c r="F20">
-        <v>2.488026358572256</v>
+        <v>2.258072351763332</v>
       </c>
       <c r="G20">
-        <v>0.2145042605690648</v>
+        <v>0.3678108234145299</v>
       </c>
       <c r="H20">
-        <v>0.1964944530512085</v>
+        <v>0.5371918733946117</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.01550429166237421</v>
+        <v>0.03406648112088639</v>
       </c>
       <c r="K20">
-        <v>1.336285412449115</v>
+        <v>0.4155137685946784</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5977434550061673</v>
+        <v>1.164175177073879</v>
       </c>
       <c r="O20">
-        <v>0.8163160954579212</v>
+        <v>1.749882118520262</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.47646281636446</v>
+        <v>0.4830256513866971</v>
       </c>
       <c r="C21">
-        <v>0.1778034251811675</v>
+        <v>0.07370651457796384</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.655371286325249</v>
+        <v>0.8913692882119193</v>
       </c>
       <c r="F21">
-        <v>2.770655698769559</v>
+        <v>2.310163680148577</v>
       </c>
       <c r="G21">
-        <v>0.2250806508688328</v>
+        <v>0.3656568556647031</v>
       </c>
       <c r="H21">
-        <v>0.1947774732768153</v>
+        <v>0.5324358417456452</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01583759265083629</v>
+        <v>0.0337693526108449</v>
       </c>
       <c r="K21">
-        <v>1.501475093401439</v>
+        <v>0.4662877372632579</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5741160130669911</v>
+        <v>1.153188663702927</v>
       </c>
       <c r="O21">
-        <v>0.835529328534804</v>
+        <v>1.735602459514311</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.585182547680802</v>
+        <v>0.5156196823012351</v>
       </c>
       <c r="C22">
-        <v>0.1880826223247141</v>
+        <v>0.07698565117813416</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.781238246699431</v>
+        <v>0.9204765291077308</v>
       </c>
       <c r="F22">
-        <v>2.960481371713684</v>
+        <v>2.345341538255951</v>
       </c>
       <c r="G22">
-        <v>0.2328584780810417</v>
+        <v>0.3644981678657402</v>
       </c>
       <c r="H22">
-        <v>0.194139821517517</v>
+        <v>0.5295342611150886</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.016113274621123</v>
+        <v>0.03359391650585586</v>
       </c>
       <c r="K22">
-        <v>1.609732922618576</v>
+        <v>0.4993992718409572</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5596162635873512</v>
+        <v>1.146376246434123</v>
       </c>
       <c r="O22">
-        <v>0.850929792685676</v>
+        <v>1.727224432598192</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.527117357929967</v>
+        <v>0.4982262716917489</v>
       </c>
       <c r="C23">
-        <v>0.1825943088812068</v>
+        <v>0.07523667217891727</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.7138409161346</v>
+        <v>0.9049105644993745</v>
       </c>
       <c r="F23">
-        <v>2.858667364653911</v>
+        <v>2.326462646374182</v>
       </c>
       <c r="G23">
-        <v>0.2286240085115523</v>
+        <v>0.3650937513660892</v>
       </c>
       <c r="H23">
-        <v>0.1944340577714314</v>
+        <v>0.5310639713389662</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01596058013897306</v>
+        <v>0.03368583175609885</v>
       </c>
       <c r="K23">
-        <v>1.551922401820264</v>
+        <v>0.481733835546521</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5672662007841538</v>
+        <v>1.149978508769962</v>
       </c>
       <c r="O23">
-        <v>0.842437711968671</v>
+        <v>1.731608513351873</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.307994941359169</v>
+        <v>0.4322971286798065</v>
       </c>
       <c r="C24">
-        <v>0.1618486194531386</v>
+        <v>0.06858766440100794</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.463118820088965</v>
+        <v>0.8466348352947506</v>
       </c>
       <c r="F24">
-        <v>2.483486149549293</v>
+        <v>2.257240048864162</v>
       </c>
       <c r="G24">
-        <v>0.2143451184742915</v>
+        <v>0.3678502241947825</v>
       </c>
       <c r="H24">
-        <v>0.1965303140592098</v>
+        <v>0.5372730989866668</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01549976343656212</v>
+        <v>0.03407165364562736</v>
       </c>
       <c r="K24">
-        <v>1.333589594840959</v>
+        <v>0.4146827220060629</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5981449634360061</v>
+        <v>1.16436095931742</v>
       </c>
       <c r="O24">
-        <v>0.8160473851377645</v>
+        <v>1.750131607398046</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.072870959109395</v>
+        <v>0.361088452502031</v>
       </c>
       <c r="C25">
-        <v>0.1395222448194176</v>
+        <v>0.06136478089071318</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.200627043859527</v>
+        <v>0.7852197202114297</v>
       </c>
       <c r="F25">
-        <v>2.097663201298971</v>
+        <v>2.187424711902707</v>
       </c>
       <c r="G25">
-        <v>0.2022698175379176</v>
+        <v>0.371888606474208</v>
       </c>
       <c r="H25">
-        <v>0.2007045049974749</v>
+        <v>0.5448584389979487</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.01522605231547658</v>
+        <v>0.03456811813288851</v>
       </c>
       <c r="K25">
-        <v>1.098968856516365</v>
+        <v>0.3420680156249034</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6352449662054696</v>
+        <v>1.181455462712606</v>
       </c>
       <c r="O25">
-        <v>0.7986134611690829</v>
+        <v>1.774201147620417</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_209/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_209/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3085878193809322</v>
+        <v>0.9003595287014434</v>
       </c>
       <c r="C2">
-        <v>0.05600425874996517</v>
+        <v>0.123092626189603</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.7412275368263153</v>
+        <v>1.012599669322825</v>
       </c>
       <c r="F2">
-        <v>2.1401641376887</v>
+        <v>1.826684859846452</v>
       </c>
       <c r="G2">
-        <v>0.3757734516185138</v>
+        <v>0.1958416580695754</v>
       </c>
       <c r="H2">
-        <v>0.5512079301942805</v>
+        <v>0.2052536091316313</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03500250578657216</v>
+        <v>0.01519123849912418</v>
       </c>
       <c r="K2">
-        <v>0.2883637197925282</v>
+        <v>0.926553508311514</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.195404981206032</v>
+        <v>0.6655692086871738</v>
       </c>
       <c r="O2">
-        <v>1.795432379671979</v>
+        <v>0.7940646715830155</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2729701417155752</v>
+        <v>0.7836236992497447</v>
       </c>
       <c r="C3">
-        <v>0.05234576605603536</v>
+        <v>0.1119487192148512</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7121726695951338</v>
+        <v>0.887736194351703</v>
       </c>
       <c r="F3">
-        <v>2.110706947619377</v>
+        <v>1.649814218959548</v>
       </c>
       <c r="G3">
-        <v>0.3789724841568187</v>
+        <v>0.192839170819731</v>
       </c>
       <c r="H3">
-        <v>0.5559883586556182</v>
+        <v>0.2091794307461399</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03533973316615402</v>
+        <v>0.01526010101972908</v>
       </c>
       <c r="K3">
-        <v>0.2518252571454127</v>
+        <v>0.809724091247034</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.205710661661431</v>
+        <v>0.6878792535242049</v>
       </c>
       <c r="O3">
-        <v>1.812005848290596</v>
+        <v>0.7956021441305978</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2510848548860736</v>
+        <v>0.7119742063730712</v>
       </c>
       <c r="C4">
-        <v>0.05008712320821473</v>
+        <v>0.105097335738833</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6947055943195437</v>
+        <v>0.8121235853040218</v>
       </c>
       <c r="F4">
-        <v>2.093884989288568</v>
+        <v>1.544135297588682</v>
       </c>
       <c r="G4">
-        <v>0.3812152619849272</v>
+        <v>0.191607366329805</v>
       </c>
       <c r="H4">
-        <v>0.559159155452349</v>
+        <v>0.2119817254569156</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03556788842769798</v>
+        <v>0.0153444537694849</v>
       </c>
       <c r="K4">
-        <v>0.2293227894513592</v>
+        <v>0.7379429352183564</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.212459214350723</v>
+        <v>0.7024090129435621</v>
       </c>
       <c r="O4">
-        <v>1.823258438441982</v>
+        <v>0.798655979150368</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2421629972761536</v>
+        <v>0.6827752748878879</v>
       </c>
       <c r="C5">
-        <v>0.04916367737625649</v>
+        <v>0.102302539500144</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6876812727684438</v>
+        <v>0.7815471500464071</v>
       </c>
       <c r="F5">
-        <v>2.087347678862642</v>
+        <v>1.501746698264995</v>
       </c>
       <c r="G5">
-        <v>0.3821991548976769</v>
+        <v>0.1912513214553258</v>
       </c>
       <c r="H5">
-        <v>0.560510543242188</v>
+        <v>0.2132188297062569</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0356661634232367</v>
+        <v>0.01538891056726044</v>
       </c>
       <c r="K5">
-        <v>0.2201363969329577</v>
+        <v>0.7086722884533714</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.21531520039948</v>
+        <v>0.7085338442918179</v>
       </c>
       <c r="O5">
-        <v>1.82811445182324</v>
+        <v>0.8004071292097308</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2406813395037943</v>
+        <v>0.6779265209769676</v>
       </c>
       <c r="C6">
-        <v>0.04901015880128057</v>
+        <v>0.101838281448309</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6865205439177373</v>
+        <v>0.7764834230822544</v>
       </c>
       <c r="F6">
-        <v>2.086281347893021</v>
+        <v>1.494747327676308</v>
       </c>
       <c r="G6">
-        <v>0.382366750913917</v>
+        <v>0.1912007900267838</v>
       </c>
       <c r="H6">
-        <v>0.5607385200570008</v>
+        <v>0.2134299006852061</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03568280186612327</v>
+        <v>0.0153968874824848</v>
       </c>
       <c r="K6">
-        <v>0.2186100264622581</v>
+        <v>0.7038105527041267</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.215795832866633</v>
+        <v>0.7095630316309851</v>
       </c>
       <c r="O6">
-        <v>1.828937120875764</v>
+        <v>0.800727833016083</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2509645447092055</v>
+        <v>0.7115804342736567</v>
       </c>
       <c r="C7">
-        <v>0.05007468147744021</v>
+        <v>0.1050596561705248</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6946104827594439</v>
+        <v>0.8117103006470927</v>
       </c>
       <c r="F7">
-        <v>2.093795538565203</v>
+        <v>1.543560965439681</v>
       </c>
       <c r="G7">
-        <v>0.3812282480502986</v>
+        <v>0.1916019839076952</v>
       </c>
       <c r="H7">
-        <v>0.5591771407629906</v>
+        <v>0.2119980285840697</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03556919234596734</v>
+        <v>0.01534501314443659</v>
       </c>
       <c r="K7">
-        <v>0.229198964415275</v>
+        <v>0.7375482682895296</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.212497302305721</v>
+        <v>0.702490795926078</v>
       </c>
       <c r="O7">
-        <v>1.823322833369119</v>
+        <v>0.798677574905696</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2963104727025723</v>
+        <v>0.8600985108613202</v>
       </c>
       <c r="C8">
-        <v>0.05474540451390908</v>
+        <v>0.119251726167235</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.731132003633121</v>
+        <v>0.9693100710162099</v>
       </c>
       <c r="F8">
-        <v>2.129744583998303</v>
+        <v>1.765057760620138</v>
       </c>
       <c r="G8">
-        <v>0.3768186007994032</v>
+        <v>0.1946745626971307</v>
       </c>
       <c r="H8">
-        <v>0.5528073365306341</v>
+        <v>0.2065238248237478</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03511440026133172</v>
+        <v>0.01520594369494077</v>
       </c>
       <c r="K8">
-        <v>0.2757796410004687</v>
+        <v>0.8862759831036442</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.198871083953051</v>
+        <v>0.6730859733437491</v>
       </c>
       <c r="O8">
-        <v>1.800923392460206</v>
+        <v>0.7941421952261436</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.385086857421868</v>
+        <v>1.151949560936373</v>
       </c>
       <c r="C9">
-        <v>0.06380450004247962</v>
+        <v>0.1470393240369816</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8057158946062373</v>
+        <v>1.288132895250726</v>
       </c>
       <c r="F9">
-        <v>2.210296528264564</v>
+        <v>2.225395531994295</v>
       </c>
       <c r="G9">
-        <v>0.3703863872033395</v>
+        <v>0.2059293619937677</v>
       </c>
       <c r="H9">
-        <v>0.5421846171184583</v>
+        <v>0.1990583463767948</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03439017504906339</v>
+        <v>0.01529073723834706</v>
       </c>
       <c r="K9">
-        <v>0.3665662045767988</v>
+        <v>1.177922251890095</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.17548566752194</v>
+        <v>0.6222642489015726</v>
       </c>
       <c r="O9">
-        <v>1.765547667567802</v>
+        <v>0.8031219434487298</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4501997104115105</v>
+        <v>1.3673501888168</v>
       </c>
       <c r="C10">
-        <v>0.0703964307267313</v>
+        <v>0.167473693127036</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.8623378670615693</v>
+        <v>1.530464002066907</v>
       </c>
       <c r="F10">
-        <v>2.275645480384952</v>
+        <v>2.583676326722127</v>
       </c>
       <c r="G10">
-        <v>0.3670180179778129</v>
+        <v>0.2179391052056232</v>
       </c>
       <c r="H10">
-        <v>0.5355179679821802</v>
+        <v>0.1958023387701076</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03396060355742136</v>
+        <v>0.01560599368321292</v>
       </c>
       <c r="K10">
-        <v>0.4329052416027253</v>
+        <v>1.392759140235967</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.160332976982389</v>
+        <v>0.5894527012852251</v>
       </c>
       <c r="O10">
-        <v>1.744781794817641</v>
+        <v>0.8222823505359429</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4797928833435208</v>
+        <v>1.465700586520342</v>
       </c>
       <c r="C11">
-        <v>0.07338088227047024</v>
+        <v>0.1767851685484771</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.8884971670285751</v>
+        <v>1.642987904199217</v>
       </c>
       <c r="F11">
-        <v>2.306722228280279</v>
+        <v>2.752054315807385</v>
       </c>
       <c r="G11">
-        <v>0.365781927139146</v>
+        <v>0.224346182051363</v>
       </c>
       <c r="H11">
-        <v>0.5327319747677848</v>
+        <v>0.1948610567669107</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03378751375275257</v>
+        <v>0.01581270818466685</v>
       </c>
       <c r="K11">
-        <v>0.4630017952918024</v>
+        <v>1.490755051575803</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.153879127946176</v>
+        <v>0.5755929745400863</v>
       </c>
       <c r="O11">
-        <v>1.736472154081511</v>
+        <v>0.8341225755661839</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.490994668479118</v>
+        <v>1.503008402823241</v>
       </c>
       <c r="C12">
-        <v>0.07450890826351042</v>
+        <v>0.1803144507063195</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.8984609711751119</v>
+        <v>1.6859744071688</v>
       </c>
       <c r="F12">
-        <v>2.318684697481814</v>
+        <v>2.816683859855772</v>
       </c>
       <c r="G12">
-        <v>0.3653565649342525</v>
+        <v>0.2269198589453723</v>
       </c>
       <c r="H12">
-        <v>0.5317124522613881</v>
+        <v>0.1945872888427616</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03372518544068726</v>
+        <v>0.01590084420427829</v>
       </c>
       <c r="K12">
-        <v>0.4743863719922672</v>
+        <v>1.527913846688847</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.151498316443359</v>
+        <v>0.5705055677845152</v>
       </c>
       <c r="O12">
-        <v>1.733489218644209</v>
+        <v>0.8390909124533437</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4885823740456772</v>
+        <v>1.494970413921351</v>
       </c>
       <c r="C13">
-        <v>0.07426606315780759</v>
+        <v>0.1795541967212984</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.8963125136550474</v>
+        <v>1.676698963265338</v>
       </c>
       <c r="F13">
-        <v>2.316099714738527</v>
+        <v>2.8027245422129</v>
       </c>
       <c r="G13">
-        <v>0.3654462723766159</v>
+        <v>0.2263588175827067</v>
       </c>
       <c r="H13">
-        <v>0.5319304470521971</v>
+        <v>0.1946424886123381</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03373846577014206</v>
+        <v>0.01588141148110367</v>
       </c>
       <c r="K13">
-        <v>0.4719350583094695</v>
+        <v>1.519908620727847</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.152008259973854</v>
+        <v>0.5715939461177229</v>
       </c>
       <c r="O13">
-        <v>1.734124360311739</v>
+        <v>0.8379987434474856</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.48071455486334</v>
+        <v>1.468768552852879</v>
       </c>
       <c r="C14">
-        <v>0.07347372856764878</v>
+        <v>0.1770754541639974</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.8893157354075925</v>
+        <v>1.646516603924951</v>
       </c>
       <c r="F14">
-        <v>2.30770249005252</v>
+        <v>2.757353461901289</v>
       </c>
       <c r="G14">
-        <v>0.3657460754716908</v>
+        <v>0.2245548945530942</v>
       </c>
       <c r="H14">
-        <v>0.5326473871247828</v>
+        <v>0.1948368466506238</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03378232145106885</v>
+        <v>0.01581975709827432</v>
       </c>
       <c r="K14">
-        <v>0.4639386620792152</v>
+        <v>1.493811058112243</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.153681992292142</v>
+        <v>0.5751711590563602</v>
       </c>
       <c r="O14">
-        <v>1.736223462965654</v>
+        <v>0.8345213974429697</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4758946828943635</v>
+        <v>1.452727960377416</v>
       </c>
       <c r="C15">
-        <v>0.07298812240361485</v>
+        <v>0.1755576033750685</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.8850375423392762</v>
+        <v>1.628079504217936</v>
       </c>
       <c r="F15">
-        <v>2.302584272359212</v>
+        <v>2.729678354657864</v>
       </c>
       <c r="G15">
-        <v>0.3659352804695786</v>
+        <v>0.2234695053060634</v>
       </c>
       <c r="H15">
-        <v>0.5330911531444684</v>
+        <v>0.1949668189166545</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03380960347872453</v>
+        <v>0.01578329914524268</v>
       </c>
       <c r="K15">
-        <v>0.4590390134669917</v>
+        <v>1.477832405530592</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.154715420948243</v>
+        <v>0.5773835028449952</v>
       </c>
       <c r="O15">
-        <v>1.737530556307817</v>
+        <v>0.8324556401249623</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4482651303242164</v>
+        <v>1.360931110732253</v>
       </c>
       <c r="C16">
-        <v>0.07020109689668175</v>
+        <v>0.1668655636369607</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.8606363852588004</v>
+        <v>1.523160256846396</v>
       </c>
       <c r="F16">
-        <v>2.273641722258247</v>
+        <v>2.572788724120528</v>
       </c>
       <c r="G16">
-        <v>0.3671047704250157</v>
+        <v>0.217540364088606</v>
       </c>
       <c r="H16">
-        <v>0.5357050031947352</v>
+        <v>0.1958751405912196</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03397236518963354</v>
+        <v>0.01559382147429034</v>
       </c>
       <c r="K16">
-        <v>0.4309366691553578</v>
+        <v>1.386361197285879</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.160763585824526</v>
+        <v>0.5903805667428088</v>
       </c>
       <c r="O16">
-        <v>1.745347748647745</v>
+        <v>0.8215744035947239</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4313079362780456</v>
+        <v>1.30471833793149</v>
       </c>
       <c r="C17">
-        <v>0.06848764590574774</v>
+        <v>0.1615379726130044</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.8457700049601584</v>
+        <v>1.45941361804293</v>
       </c>
       <c r="F17">
-        <v>2.25623222450767</v>
+        <v>2.477987141544389</v>
       </c>
       <c r="G17">
-        <v>0.367898167439769</v>
+        <v>0.2141528530097716</v>
       </c>
       <c r="H17">
-        <v>0.5373716992622946</v>
+        <v>0.1965741223270285</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03407793689011562</v>
+        <v>0.0154943160935197</v>
       </c>
       <c r="K17">
-        <v>0.4136754932501958</v>
+        <v>1.330322598012941</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.164586400516527</v>
+        <v>0.5986322532545003</v>
       </c>
       <c r="O17">
-        <v>1.750434709215583</v>
+        <v>0.8157237290247537</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4215521036814778</v>
+        <v>1.272419661969735</v>
       </c>
       <c r="C18">
-        <v>0.0675007771430387</v>
+        <v>0.1584751052852909</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.8372570592048874</v>
+        <v>1.422960346488608</v>
       </c>
       <c r="F18">
-        <v>2.246345711046075</v>
+        <v>2.423961503825637</v>
       </c>
       <c r="G18">
-        <v>0.3683823804019397</v>
+        <v>0.2122925299378551</v>
       </c>
       <c r="H18">
-        <v>0.5383535593403082</v>
+        <v>0.1970266535791225</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03414075981222808</v>
+        <v>0.0154429931917317</v>
       </c>
       <c r="K18">
-        <v>0.4037396965356379</v>
+        <v>1.298114915738296</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.166826522482609</v>
+        <v>0.6034782969262622</v>
       </c>
       <c r="O18">
-        <v>1.753467585001957</v>
+        <v>0.8126503624215218</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4182485355683809</v>
+        <v>1.26148926454519</v>
       </c>
       <c r="C19">
-        <v>0.06716641288289793</v>
+        <v>0.1574382876126208</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.8343812122169254</v>
+        <v>1.410652951847567</v>
       </c>
       <c r="F19">
-        <v>2.243020103359299</v>
+        <v>2.405752825032593</v>
       </c>
       <c r="G19">
-        <v>0.3685511097941756</v>
+        <v>0.2116774404308259</v>
       </c>
       <c r="H19">
-        <v>0.5386899885283967</v>
+        <v>0.1971883976344984</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03416239119320252</v>
+        <v>0.01542660908322269</v>
       </c>
       <c r="K19">
-        <v>0.4003743160814679</v>
+        <v>1.287213770290379</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.167592090549086</v>
+        <v>0.6051360159816994</v>
       </c>
       <c r="O19">
-        <v>1.754512832265917</v>
+        <v>0.8116588471886388</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4331133221273546</v>
+        <v>1.310698737729524</v>
       </c>
       <c r="C20">
-        <v>0.06867018459104202</v>
+        <v>0.1621049499453591</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.8473486434521789</v>
+        <v>1.466177274769876</v>
       </c>
       <c r="F20">
-        <v>2.258072351763332</v>
+        <v>2.488026358572256</v>
       </c>
       <c r="G20">
-        <v>0.3678108234145299</v>
+        <v>0.214504260569008</v>
       </c>
       <c r="H20">
-        <v>0.5371918733946117</v>
+        <v>0.1964944530513222</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03406648112088639</v>
+        <v>0.01550429166241862</v>
       </c>
       <c r="K20">
-        <v>0.4155137685946784</v>
+        <v>1.336285412449001</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.164175177073879</v>
+        <v>0.5977434550061673</v>
       </c>
       <c r="O20">
-        <v>1.749882118520262</v>
+        <v>0.8163160954579212</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4830256513866971</v>
+        <v>1.47646281636446</v>
       </c>
       <c r="C21">
-        <v>0.07370651457796384</v>
+        <v>0.1778034251811818</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.8913692882119193</v>
+        <v>1.655371286325249</v>
       </c>
       <c r="F21">
-        <v>2.310163680148577</v>
+        <v>2.770655698769559</v>
       </c>
       <c r="G21">
-        <v>0.3656568556647031</v>
+        <v>0.2250806508688328</v>
       </c>
       <c r="H21">
-        <v>0.5324358417456452</v>
+        <v>0.1947774732768153</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0337693526108449</v>
+        <v>0.0158375926508274</v>
       </c>
       <c r="K21">
-        <v>0.4662877372632579</v>
+        <v>1.501475093401382</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.153188663702927</v>
+        <v>0.5741160130669911</v>
       </c>
       <c r="O21">
-        <v>1.735602459514311</v>
+        <v>0.8355293285347472</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5156196823012351</v>
+        <v>1.58518254768083</v>
       </c>
       <c r="C22">
-        <v>0.07698565117813416</v>
+        <v>0.1880826223245293</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.9204765291077308</v>
+        <v>1.781238246699431</v>
       </c>
       <c r="F22">
-        <v>2.345341538255951</v>
+        <v>2.960481371713655</v>
       </c>
       <c r="G22">
-        <v>0.3644981678657402</v>
+        <v>0.232858478080928</v>
       </c>
       <c r="H22">
-        <v>0.5295342611150886</v>
+        <v>0.1941398215174033</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03359391650585586</v>
+        <v>0.01611327462123135</v>
       </c>
       <c r="K22">
-        <v>0.4993992718409572</v>
+        <v>1.609732922618491</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.146376246434123</v>
+        <v>0.559616263587408</v>
       </c>
       <c r="O22">
-        <v>1.727224432598192</v>
+        <v>0.8509297926856618</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4982262716917489</v>
+        <v>1.527117357930024</v>
       </c>
       <c r="C23">
-        <v>0.07523667217891727</v>
+        <v>0.1825943088814768</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.9049105644993745</v>
+        <v>1.7138409161346</v>
       </c>
       <c r="F23">
-        <v>2.326462646374182</v>
+        <v>2.85866736465394</v>
       </c>
       <c r="G23">
-        <v>0.3650937513660892</v>
+        <v>0.2286240085115523</v>
       </c>
       <c r="H23">
-        <v>0.5310639713389662</v>
+        <v>0.1944340577713106</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03368583175609885</v>
+        <v>0.01596058013891266</v>
       </c>
       <c r="K23">
-        <v>0.481733835546521</v>
+        <v>1.551922401820235</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.149978508769962</v>
+        <v>0.5672662007841538</v>
       </c>
       <c r="O23">
-        <v>1.731608513351873</v>
+        <v>0.8424377119686568</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4322971286798065</v>
+        <v>1.307994941359055</v>
       </c>
       <c r="C24">
-        <v>0.06858766440100794</v>
+        <v>0.1618486194533659</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.8466348352947506</v>
+        <v>1.463118820088965</v>
       </c>
       <c r="F24">
-        <v>2.257240048864162</v>
+        <v>2.483486149549265</v>
       </c>
       <c r="G24">
-        <v>0.3678502241947825</v>
+        <v>0.2143451184742915</v>
       </c>
       <c r="H24">
-        <v>0.5372730989866668</v>
+        <v>0.1965303140590819</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03407165364562736</v>
+        <v>0.01549976343656034</v>
       </c>
       <c r="K24">
-        <v>0.4146827220060629</v>
+        <v>1.333589594840902</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.16436095931742</v>
+        <v>0.5981449634359493</v>
       </c>
       <c r="O24">
-        <v>1.750131607398046</v>
+        <v>0.8160473851377645</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.361088452502031</v>
+        <v>1.072870959109281</v>
       </c>
       <c r="C25">
-        <v>0.06136478089071318</v>
+        <v>0.1395222448191902</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.7852197202114297</v>
+        <v>1.200627043859527</v>
       </c>
       <c r="F25">
-        <v>2.187424711902707</v>
+        <v>2.097663201298971</v>
       </c>
       <c r="G25">
-        <v>0.371888606474208</v>
+        <v>0.2022698175379247</v>
       </c>
       <c r="H25">
-        <v>0.5448584389979487</v>
+        <v>0.2007045049974678</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03456811813288851</v>
+        <v>0.01522605231542862</v>
       </c>
       <c r="K25">
-        <v>0.3420680156249034</v>
+        <v>1.098968856516336</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.181455462712606</v>
+        <v>0.6352449662054127</v>
       </c>
       <c r="O25">
-        <v>1.774201147620417</v>
+        <v>0.7986134611690829</v>
       </c>
     </row>
   </sheetData>
